--- a/data/lojasAssai.xlsx
+++ b/data/lojasAssai.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="762">
   <si>
     <t>Unidade</t>
   </si>
@@ -1961,12 +1961,6 @@
   </si>
   <si>
     <t>São Bernardo do Campo</t>
-  </si>
-  <si>
-    <t>Assaí São Bernardo</t>
-  </si>
-  <si>
-    <t>Avenida Piraporinha, 680</t>
   </si>
   <si>
     <t>Assaí São Bernardo Anchieta</t>
@@ -2367,8 +2361,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:F298" totalsRowShown="0">
-  <autoFilter ref="A1:F298"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:F297" totalsRowShown="0">
+  <autoFilter ref="A1:F297"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Unidade" dataDxfId="0"/>
     <tableColumn id="2" name="Endereço" dataDxfId="0"/>
@@ -2666,7 +2660,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F298"/>
+  <dimension ref="A1:F297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7586,10 +7580,10 @@
         <v>502</v>
       </c>
       <c r="E246" s="2">
-        <v>-23.689236</v>
+        <v>-23.688945</v>
       </c>
       <c r="F246" s="2">
-        <v>-46.573396</v>
+        <v>-46.573754</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -7600,76 +7594,76 @@
         <v>652</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E247" s="2">
-        <v>-23.688945</v>
+        <v>-23.613882</v>
       </c>
       <c r="F247" s="2">
-        <v>-46.573754</v>
+        <v>-46.578116</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E248" s="2">
-        <v>-23.613882</v>
+        <v>-23.228215</v>
       </c>
       <c r="F248" s="2">
-        <v>-46.578116</v>
+        <v>-45.908166</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E249" s="2">
-        <v>-23.228215</v>
+        <v>-23.523142</v>
       </c>
       <c r="F249" s="2">
-        <v>-45.908166</v>
+        <v>-46.4751</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="C250" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="B250" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>661</v>
-      </c>
       <c r="D250" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E250" s="2">
-        <v>-23.523142</v>
+        <v>-23.628646</v>
       </c>
       <c r="F250" s="2">
-        <v>-46.4751</v>
+        <v>-46.667667</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -7680,16 +7674,16 @@
         <v>663</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E251" s="2">
-        <v>-23.628646</v>
+        <v>-23.517199</v>
       </c>
       <c r="F251" s="2">
-        <v>-46.667667</v>
+        <v>-46.726564</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -7700,16 +7694,16 @@
         <v>665</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E252" s="2">
-        <v>-23.517199</v>
+        <v>-23.5631</v>
       </c>
       <c r="F252" s="2">
-        <v>-46.726564</v>
+        <v>-46.50663</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -7720,16 +7714,16 @@
         <v>667</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E253" s="2">
-        <v>-23.5631</v>
+        <v>-23.519656</v>
       </c>
       <c r="F253" s="2">
-        <v>-46.50663</v>
+        <v>-46.673198</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -7740,16 +7734,16 @@
         <v>669</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E254" s="2">
-        <v>-23.519656</v>
+        <v>-23.498628</v>
       </c>
       <c r="F254" s="2">
-        <v>-46.673198</v>
+        <v>-46.664033</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -7760,16 +7754,16 @@
         <v>671</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E255" s="2">
-        <v>-23.498628</v>
+        <v>-23.726365</v>
       </c>
       <c r="F255" s="2">
-        <v>-46.664033</v>
+        <v>-46.700617</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -7780,16 +7774,16 @@
         <v>673</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E256" s="2">
-        <v>-23.726365</v>
+        <v>-23.57798</v>
       </c>
       <c r="F256" s="2">
-        <v>-46.700617</v>
+        <v>-46.41465</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -7800,16 +7794,16 @@
         <v>675</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E257" s="2">
-        <v>-23.57798</v>
+        <v>-23.601629</v>
       </c>
       <c r="F257" s="2">
-        <v>-46.41465</v>
+        <v>-46.9118</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -7820,16 +7814,16 @@
         <v>677</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E258" s="2">
-        <v>-23.601629</v>
+        <v>-23.467832</v>
       </c>
       <c r="F258" s="2">
-        <v>-46.9118</v>
+        <v>-46.572285</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -7840,16 +7834,16 @@
         <v>679</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E259" s="2">
-        <v>-23.467832</v>
+        <v>-23.505356</v>
       </c>
       <c r="F259" s="2">
-        <v>-46.572285</v>
+        <v>-46.68976</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -7860,16 +7854,16 @@
         <v>681</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E260" s="2">
-        <v>-23.505356</v>
+        <v>-23.526843</v>
       </c>
       <c r="F260" s="2">
-        <v>-46.68976</v>
+        <v>-46.396466</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -7880,16 +7874,16 @@
         <v>683</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E261" s="2">
-        <v>-23.526843</v>
+        <v>-23.542258</v>
       </c>
       <c r="F261" s="2">
-        <v>-46.396466</v>
+        <v>-46.423996</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -7900,16 +7894,16 @@
         <v>685</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E262" s="2">
-        <v>-23.542258</v>
+        <v>-23.663383</v>
       </c>
       <c r="F262" s="2">
-        <v>-46.423996</v>
+        <v>-46.680224</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -7920,16 +7914,16 @@
         <v>687</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E263" s="2">
-        <v>-23.663383</v>
+        <v>-23.546431</v>
       </c>
       <c r="F263" s="2">
-        <v>-46.680224</v>
+        <v>-46.9469</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -7940,16 +7934,16 @@
         <v>689</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E264" s="2">
-        <v>-23.546431</v>
+        <v>-23.553196</v>
       </c>
       <c r="F264" s="2">
-        <v>-46.9469</v>
+        <v>-46.488428</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -7960,16 +7954,16 @@
         <v>691</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E265" s="2">
-        <v>-23.553196</v>
+        <v>-23.467191</v>
       </c>
       <c r="F265" s="2">
-        <v>-46.488428</v>
+        <v>-46.584729</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -7980,16 +7974,16 @@
         <v>693</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E266" s="2">
-        <v>-23.467191</v>
+        <v>-23.641707</v>
       </c>
       <c r="F266" s="2">
-        <v>-46.584729</v>
+        <v>-46.644191</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -8000,16 +7994,16 @@
         <v>695</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E267" s="2">
-        <v>-23.641707</v>
+        <v>-23.565317</v>
       </c>
       <c r="F267" s="2">
-        <v>-46.644191</v>
+        <v>-46.446522</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -8020,16 +8014,16 @@
         <v>697</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E268" s="2">
-        <v>-23.565317</v>
+        <v>-23.552853</v>
       </c>
       <c r="F268" s="2">
-        <v>-46.446522</v>
+        <v>-46.742244</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -8040,16 +8034,16 @@
         <v>699</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E269" s="2">
-        <v>-23.552853</v>
+        <v>-23.556875</v>
       </c>
       <c r="F269" s="2">
-        <v>-46.742244</v>
+        <v>-46.748359</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -8060,16 +8054,16 @@
         <v>701</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E270" s="2">
-        <v>-23.556875</v>
+        <v>-23.449862</v>
       </c>
       <c r="F270" s="2">
-        <v>-46.748359</v>
+        <v>-46.722528</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -8080,16 +8074,16 @@
         <v>703</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E271" s="2">
-        <v>-23.449862</v>
+        <v>-23.647096</v>
       </c>
       <c r="F271" s="2">
-        <v>-46.722528</v>
+        <v>-46.727638</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -8100,16 +8094,16 @@
         <v>705</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E272" s="2">
-        <v>-23.647096</v>
+        <v>-23.5225</v>
       </c>
       <c r="F272" s="2">
-        <v>-46.727638</v>
+        <v>-46.60177</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -8120,16 +8114,16 @@
         <v>707</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E273" s="2">
-        <v>-23.5225</v>
+        <v>-23.553986</v>
       </c>
       <c r="F273" s="2">
-        <v>-46.60177</v>
+        <v>-46.600447</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -8140,16 +8134,16 @@
         <v>709</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E274" s="2">
-        <v>-23.553986</v>
+        <v>-23.678527</v>
       </c>
       <c r="F274" s="2">
-        <v>-46.600447</v>
+        <v>-46.695575</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -8160,16 +8154,16 @@
         <v>711</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E275" s="2">
-        <v>-23.678527</v>
+        <v>-23.510605</v>
       </c>
       <c r="F275" s="2">
-        <v>-46.695575</v>
+        <v>-46.430522</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -8180,16 +8174,16 @@
         <v>713</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E276" s="2">
-        <v>-23.510605</v>
+        <v>-23.512795</v>
       </c>
       <c r="F276" s="2">
-        <v>-46.430522</v>
+        <v>-46.553893</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -8200,16 +8194,16 @@
         <v>715</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E277" s="2">
-        <v>-23.512795</v>
+        <v>-23.515934</v>
       </c>
       <c r="F277" s="2">
-        <v>-46.553893</v>
+        <v>-46.51868</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -8220,16 +8214,16 @@
         <v>717</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E278" s="2">
-        <v>-23.515934</v>
+        <v>-23.584363</v>
       </c>
       <c r="F278" s="2">
-        <v>-46.51868</v>
+        <v>-46.747152</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -8240,16 +8234,16 @@
         <v>719</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E279" s="2">
-        <v>-23.584363</v>
+        <v>-23.206373</v>
       </c>
       <c r="F279" s="2">
-        <v>-46.747152</v>
+        <v>-45.905085</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -8260,16 +8254,16 @@
         <v>721</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E280" s="2">
-        <v>-23.206373</v>
+        <v>-23.610402</v>
       </c>
       <c r="F280" s="2">
-        <v>-45.905085</v>
+        <v>-46.474088</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -8280,16 +8274,16 @@
         <v>723</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E281" s="2">
-        <v>-23.610402</v>
+        <v>-23.495519</v>
       </c>
       <c r="F281" s="2">
-        <v>-46.474088</v>
+        <v>-46.434025</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -8300,16 +8294,16 @@
         <v>725</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E282" s="2">
-        <v>-23.495519</v>
+        <v>-23.501481</v>
       </c>
       <c r="F282" s="2">
-        <v>-46.434025</v>
+        <v>-46.470277</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -8320,16 +8314,16 @@
         <v>727</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E283" s="2">
-        <v>-23.501481</v>
+        <v>-23.649655</v>
       </c>
       <c r="F283" s="2">
-        <v>-46.470277</v>
+        <v>-46.661631</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -8340,16 +8334,16 @@
         <v>729</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E284" s="2">
-        <v>-23.649655</v>
+        <v>-23.602287</v>
       </c>
       <c r="F284" s="2">
-        <v>-46.661631</v>
+        <v>-46.511086</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -8360,16 +8354,16 @@
         <v>731</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E285" s="2">
-        <v>-23.602287</v>
+        <v>-23.472677</v>
       </c>
       <c r="F285" s="2">
-        <v>-46.511086</v>
+        <v>-46.608557</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -8380,16 +8374,16 @@
         <v>733</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E286" s="2">
-        <v>-23.472677</v>
+        <v>-23.617824</v>
       </c>
       <c r="F286" s="2">
-        <v>-46.608557</v>
+        <v>-46.609115</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -8400,16 +8394,16 @@
         <v>735</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E287" s="2">
-        <v>-23.617824</v>
+        <v>-23.772299</v>
       </c>
       <c r="F287" s="2">
-        <v>-46.609115</v>
+        <v>-46.719476</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -8420,16 +8414,16 @@
         <v>737</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E288" s="2">
-        <v>-23.772299</v>
+        <v>-23.551045</v>
       </c>
       <c r="F288" s="2">
-        <v>-46.719476</v>
+        <v>-46.527482</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -8440,16 +8434,16 @@
         <v>739</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E289" s="2">
-        <v>-23.551045</v>
+        <v>-23.595196</v>
       </c>
       <c r="F289" s="2">
-        <v>-46.527482</v>
+        <v>-46.737845</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -8460,56 +8454,56 @@
         <v>741</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>661</v>
+        <v>742</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E290" s="2">
-        <v>-23.595196</v>
+        <v>-23.962595</v>
       </c>
       <c r="F290" s="2">
-        <v>-46.737845</v>
+        <v>-46.380576</v>
       </c>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E291" s="2">
-        <v>-23.962595</v>
+        <v>-23.64102</v>
       </c>
       <c r="F291" s="2">
-        <v>-46.380576</v>
+        <v>-46.8048</v>
       </c>
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="C292" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="B292" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>747</v>
-      </c>
       <c r="D292" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E292" s="2">
-        <v>-23.64102</v>
+        <v>-23.608467</v>
       </c>
       <c r="F292" s="2">
-        <v>-46.8048</v>
+        <v>-46.75295</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -8520,16 +8514,16 @@
         <v>749</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D293" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E293" s="2">
-        <v>-23.608467</v>
+        <v>-23.613221</v>
       </c>
       <c r="F293" s="2">
-        <v>-46.75295</v>
+        <v>-46.781066</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -8540,95 +8534,75 @@
         <v>751</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E294" s="2">
-        <v>-23.613221</v>
+        <v>-23.529796</v>
       </c>
       <c r="F294" s="2">
-        <v>-46.781066</v>
+        <v>-46.578482</v>
       </c>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D295" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E295" s="2">
-        <v>-23.529796</v>
+        <v>-23.024431</v>
       </c>
       <c r="F295" s="2">
-        <v>-46.578482</v>
+        <v>-45.55644</v>
       </c>
     </row>
     <row r="296" spans="1:6">
       <c r="A296" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>502</v>
+        <v>759</v>
       </c>
       <c r="E296" s="2">
-        <v>-23.024431</v>
+        <v>-10.250802</v>
       </c>
       <c r="F296" s="2">
-        <v>-45.55644</v>
+        <v>-48.333348</v>
       </c>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C297" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="B297" s="1" t="s">
+      <c r="D297" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="C297" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="D297" s="1" t="s">
-        <v>761</v>
-      </c>
       <c r="E297" s="2">
-        <v>-10.250802</v>
+        <v>-10.207782</v>
       </c>
       <c r="F297" s="2">
-        <v>-48.333348</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6">
-      <c r="A298" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="B298" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="C298" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="D298" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="E298" s="2">
-        <v>-10.207782</v>
-      </c>
-      <c r="F298" s="2">
         <v>-48.330219</v>
       </c>
     </row>
